--- a/data_output/prism_passive/all_passive_out_length_msc_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>320.69063322094291</v>
+        <v>320.69063316313134</v>
       </c>
       <c r="C2">
-        <v>288.89182331712277</v>
+        <v>288.89182327961043</v>
       </c>
       <c r="D2">
-        <v>243.65371621929319</v>
+        <v>243.65371616389822</v>
       </c>
       <c r="E2">
-        <v>250.39937036887869</v>
+        <v>250.39937032125715</v>
       </c>
       <c r="F2">
-        <v>238.60818662019827</v>
+        <v>238.60818660527244</v>
       </c>
       <c r="G2">
-        <v>279.7222406229032</v>
+        <v>279.72224057742233</v>
       </c>
       <c r="H2">
-        <v>290.73600931707085</v>
+        <v>290.73600927513712</v>
       </c>
       <c r="I2">
-        <v>339.78296051986706</v>
+        <v>339.78296047728918</v>
       </c>
       <c r="J2">
-        <v>302.60448670770955</v>
+        <v>302.6044866609443</v>
       </c>
       <c r="K2">
-        <v>306.80357798553678</v>
+        <v>306.80357794057227</v>
       </c>
       <c r="L2">
-        <v>309.87555862812729</v>
+        <v>309.8755585866129</v>
       </c>
       <c r="N2">
-        <v>281.90691527743547</v>
+        <v>281.90691521578503</v>
       </c>
       <c r="O2">
-        <v>262.85707345386032</v>
+        <v>262.85707341393442</v>
       </c>
       <c r="P2">
-        <v>261.06781093802971</v>
+        <v>261.06781087750261</v>
       </c>
       <c r="Q2">
-        <v>344.26095141692178</v>
+        <v>344.260951367649</v>
       </c>
       <c r="S2">
-        <v>329.18828592850008</v>
+        <v>329.18828591103079</v>
       </c>
       <c r="V2">
-        <v>325.08020888342139</v>
+        <v>325.0802088314698</v>
       </c>
       <c r="W2">
-        <v>269.69264775669501</v>
+        <v>269.69264771514281</v>
       </c>
       <c r="X2">
-        <v>277.12536027435169</v>
+        <v>277.12536023714631</v>
       </c>
       <c r="AA2">
-        <v>326.39775554853964</v>
+        <v>326.397755505156</v>
       </c>
       <c r="AB2">
-        <v>298.26261797864811</v>
+        <v>298.26261794601714</v>
       </c>
       <c r="AC2">
-        <v>262.55800430339468</v>
+        <v>262.55800425995699</v>
       </c>
       <c r="AD2">
-        <v>275.62323474478654</v>
+        <v>275.62323467286774</v>
       </c>
       <c r="AE2">
-        <v>267.98564945157517</v>
+        <v>267.98564944542073</v>
       </c>
       <c r="AF2">
-        <v>289.05090432918655</v>
+        <v>289.05090430944904</v>
       </c>
       <c r="AG2">
-        <v>285.47641921701415</v>
+        <v>285.47641916061559</v>
       </c>
       <c r="AH2">
-        <v>343.02870023226922</v>
+        <v>343.02870018305589</v>
       </c>
       <c r="AI2">
-        <v>281.92389544385924</v>
+        <v>281.92389541487853</v>
       </c>
       <c r="AJ2">
-        <v>296.79170614910163</v>
+        <v>296.79170610718836</v>
       </c>
       <c r="AK2">
-        <v>312.90000361813748</v>
+        <v>312.90000358034752</v>
       </c>
       <c r="AL2">
-        <v>338.11916376192801</v>
+        <v>338.11916369655205</v>
       </c>
       <c r="AM2">
-        <v>281.67242902209915</v>
+        <v>281.67242896552921</v>
       </c>
       <c r="AN2">
-        <v>260.71443228325825</v>
+        <v>260.71443222478274</v>
       </c>
       <c r="AO2">
-        <v>272.42828523709954</v>
+        <v>272.42828517857811</v>
       </c>
       <c r="AQ2">
-        <v>294.19274829903816</v>
+        <v>294.19274825932462</v>
       </c>
       <c r="AR2">
-        <v>334.32459524546658</v>
+        <v>334.32459524249577</v>
       </c>
       <c r="AS2">
-        <v>327.13775024115102</v>
+        <v>327.13775020507819</v>
       </c>
       <c r="AU2">
-        <v>321.83729046749306</v>
+        <v>321.83729043237565</v>
       </c>
       <c r="AV2">
-        <v>273.61609655119605</v>
+        <v>273.61609647970675</v>
       </c>
       <c r="AW2">
-        <v>279.84159216119696</v>
+        <v>279.84159211555277</v>
       </c>
       <c r="AX2">
-        <v>242.4667156623016</v>
+        <v>242.46671561893669</v>
       </c>
       <c r="AY2">
-        <v>270.09641319839579</v>
+        <v>270.09641314404303</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>325.15946447656069</v>
+        <v>325.15946442717916</v>
       </c>
       <c r="C3">
-        <v>305.71881884677043</v>
+        <v>305.71881881242405</v>
       </c>
       <c r="E3">
-        <v>255.65214797725773</v>
+        <v>255.65214796739303</v>
       </c>
       <c r="F3">
-        <v>254.10252960337155</v>
+        <v>254.10252956832969</v>
       </c>
       <c r="G3">
-        <v>279.90041738284498</v>
+        <v>279.90041735586681</v>
       </c>
       <c r="H3">
-        <v>284.29571390102774</v>
+        <v>284.29571384844081</v>
       </c>
       <c r="J3">
-        <v>305.82291802906514</v>
+        <v>305.82291798414349</v>
       </c>
       <c r="K3">
-        <v>292.79384034146881</v>
+        <v>292.79384029328207</v>
       </c>
       <c r="L3">
-        <v>320.91435673977185</v>
+        <v>320.91435670948988</v>
       </c>
       <c r="M3">
-        <v>323.82267729209821</v>
+        <v>323.82251802001736</v>
       </c>
       <c r="N3">
-        <v>308.11008342061666</v>
+        <v>308.11008337506928</v>
       </c>
       <c r="P3">
-        <v>294.90046748577595</v>
+        <v>294.90046744148231</v>
       </c>
       <c r="Q3">
-        <v>346.62525290943313</v>
+        <v>346.62525285562856</v>
       </c>
       <c r="R3">
-        <v>292.59556667119091</v>
+        <v>292.59556661028108</v>
       </c>
       <c r="W3">
-        <v>296.76438936134969</v>
+        <v>296.76438928980235</v>
       </c>
       <c r="AA3">
-        <v>335.1086069939318</v>
+        <v>335.10860691855333</v>
       </c>
       <c r="AB3">
-        <v>300.1260986079767</v>
+        <v>300.12609858090673</v>
       </c>
       <c r="AC3">
-        <v>266.95443439990709</v>
+        <v>266.95443435336961</v>
       </c>
       <c r="AD3">
-        <v>252.09094821725472</v>
+        <v>252.09094817122207</v>
       </c>
       <c r="AE3">
-        <v>264.30629341575309</v>
+        <v>264.30629339857239</v>
       </c>
       <c r="AF3">
-        <v>283.18251625765686</v>
+        <v>283.1825162467066</v>
       </c>
       <c r="AG3">
-        <v>289.01412749530124</v>
+        <v>289.01412745227151</v>
       </c>
       <c r="AH3">
-        <v>343.48388311358275</v>
+        <v>343.48388308848774</v>
       </c>
       <c r="AI3">
-        <v>312.91104989250852</v>
+        <v>312.91104984503818</v>
       </c>
       <c r="AJ3">
-        <v>298.51161937567269</v>
+        <v>298.51161932234811</v>
       </c>
       <c r="AK3">
-        <v>319.60080776026757</v>
+        <v>319.60080771987748</v>
       </c>
       <c r="AL3">
-        <v>332.76958063013268</v>
+        <v>332.76958058356684</v>
       </c>
       <c r="AM3">
-        <v>313.8138484716556</v>
+        <v>313.81384839709028</v>
       </c>
       <c r="AN3">
-        <v>256.34900226990624</v>
+        <v>256.34900221840485</v>
       </c>
       <c r="AO3">
-        <v>247.92441253188815</v>
+        <v>247.92441247626601</v>
       </c>
       <c r="AP3">
-        <v>346.33370372362623</v>
+        <v>346.33370368035855</v>
       </c>
       <c r="AQ3">
-        <v>301.19560661186068</v>
+        <v>301.19560656454405</v>
       </c>
       <c r="AS3">
-        <v>308.08305346025634</v>
+        <v>308.08305341873148</v>
       </c>
       <c r="AT3">
-        <v>266.70971647029626</v>
+        <v>266.70971640704988</v>
       </c>
       <c r="AU3">
-        <v>305.14321864352598</v>
+        <v>305.14321858810092</v>
       </c>
       <c r="AV3">
-        <v>294.76400052603958</v>
+        <v>294.76400043188687</v>
       </c>
       <c r="AW3">
-        <v>276.79762535165173</v>
+        <v>276.79762530347693</v>
       </c>
       <c r="AX3">
-        <v>277.35689204503757</v>
+        <v>277.35689201370946</v>
       </c>
       <c r="AY3">
-        <v>276.86538253645443</v>
+        <v>276.86538250548972</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,53 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>320.69063316313134</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>288.89182327961043</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>243.65371616389822</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>250.39937032125715</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>238.60818660527244</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>279.72224057742233</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>290.73600927513712</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>339.78296047728918</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>302.6044866609443</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>306.80357794057227</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>309.8755585866129</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>281.90691521578503</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>262.85707341393442</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>261.06781087750261</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>344.260951367649</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
         <v>329.18828591103079</v>
@@ -570,52 +465,55 @@
         <v>277.12536023714631</v>
       </c>
       <c r="AA2">
-        <v>326.397755505156</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>298.26261794601714</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>262.55800425995699</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>275.62323467286774</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>267.98564944542073</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>289.05090430944904</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>285.47641916061559</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>343.02870018305589</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>281.92389541487853</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>296.79170610718836</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>312.90000358034752</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>338.11916369655205</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>281.67242896552921</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>260.71443222478274</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>272.42828517857811</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>294.19274825932462</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>334.32459524249577</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>325.15946442717916</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>305.71881881242405</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>255.65214796739303</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>254.10252956832969</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>279.90041735586681</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>284.29571384844081</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>305.82291798414349</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>292.79384029328207</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>320.91435670948988</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>323.82251802001736</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>308.11008337506928</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>294.90046744148231</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>346.62525285562856</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>292.59556661028108</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>296.76438928980235</v>
       </c>
       <c r="AA3">
-        <v>335.10860691855333</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>300.12609858090673</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>266.95443435336961</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>252.09094817122207</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>264.30629339857239</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>283.1825162467066</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>289.01412745227151</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>343.48388308848774</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>312.91104984503818</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>298.51161932234811</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>319.60080771987748</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>332.76958058356684</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>313.81384839709028</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>256.34900221840485</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>247.92441247626601</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>346.33370368035855</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>301.19560656454405</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>308.08305341873148</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>320.69063322094291</v>
-      </c>
-      <c r="C2">
-        <v>288.89182331712277</v>
+        <v>262.85707341393442</v>
       </c>
       <c r="D2">
-        <v>243.65371621929319</v>
+        <v>260.71443222478274</v>
       </c>
       <c r="E2">
-        <v>250.39937036887869</v>
+        <v>294.19274825932462</v>
       </c>
       <c r="F2">
         <v>238.60818662019827</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>325.15946447656069</v>
-      </c>
       <c r="C3">
-        <v>305.71881884677043</v>
+        <v>292.59556661028108</v>
+      </c>
+      <c r="D3">
+        <v>256.34900221840485</v>
       </c>
       <c r="E3">
-        <v>255.65214797725773</v>
+        <v>301.36691324747699</v>
       </c>
       <c r="F3">
         <v>254.10252960337155</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>320.69063322094291</v>
+        <v>281.90691521578503</v>
       </c>
       <c r="C2">
-        <v>288.89182331712277</v>
+        <v>262.85707341393442</v>
       </c>
       <c r="D2">
-        <v>243.65371621929319</v>
+        <v>281.67242896552921</v>
       </c>
       <c r="E2">
-        <v>250.39937036887869</v>
+        <v>260.71443222478274</v>
       </c>
       <c r="F2">
         <v>238.60818662019827</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>325.15946447656069</v>
-      </c>
-      <c r="C3">
-        <v>305.71881884677043</v>
+        <v>308.11008337506928</v>
+      </c>
+      <c r="D3">
+        <v>313.81384839709028</v>
       </c>
       <c r="E3">
-        <v>255.65214797725773</v>
+        <v>256.34900221840485</v>
       </c>
       <c r="F3">
         <v>254.10252960337155</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>320.69063316313134</v>
+      </c>
+      <c r="C2">
+        <v>288.89182327961043</v>
+      </c>
+      <c r="D2">
+        <v>243.65371616389822</v>
+      </c>
+      <c r="E2">
+        <v>250.39937032125715</v>
+      </c>
+      <c r="F2">
+        <v>238.60818660527244</v>
+      </c>
+      <c r="G2">
+        <v>279.72224057742233</v>
+      </c>
+      <c r="H2">
+        <v>290.73600927513712</v>
+      </c>
+      <c r="I2">
+        <v>339.78296047728918</v>
+      </c>
+      <c r="J2">
+        <v>302.6044866609443</v>
+      </c>
+      <c r="K2">
+        <v>306.80357794057227</v>
+      </c>
+      <c r="L2">
+        <v>309.8755585866129</v>
+      </c>
+      <c r="N2">
         <v>281.90691521578503</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>262.85707341393442</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>261.06781087750261</v>
+      </c>
+      <c r="Q2">
+        <v>344.260951367649</v>
+      </c>
+      <c r="S2">
+        <v>329.18828591103079</v>
+      </c>
+      <c r="V2">
+        <v>325.0802088314698</v>
+      </c>
+      <c r="W2">
+        <v>269.69264771514281</v>
+      </c>
+      <c r="X2">
+        <v>277.12536023714631</v>
+      </c>
+      <c r="AA2">
+        <v>326.397755505156</v>
+      </c>
+      <c r="AB2">
+        <v>298.26261794601714</v>
+      </c>
+      <c r="AC2">
+        <v>262.55800425995699</v>
+      </c>
+      <c r="AD2">
+        <v>275.62323467286774</v>
+      </c>
+      <c r="AE2">
+        <v>267.98564944542073</v>
+      </c>
+      <c r="AF2">
+        <v>289.05090430944904</v>
+      </c>
+      <c r="AG2">
+        <v>285.47641916061559</v>
+      </c>
+      <c r="AH2">
+        <v>343.02870018305589</v>
+      </c>
+      <c r="AI2">
+        <v>281.92389541487853</v>
+      </c>
+      <c r="AJ2">
+        <v>296.79170610718836</v>
+      </c>
+      <c r="AK2">
+        <v>312.90000358034752</v>
+      </c>
+      <c r="AL2">
+        <v>338.11916369655205</v>
+      </c>
+      <c r="AM2">
         <v>281.67242896552921</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>260.71443222478274</v>
       </c>
-      <c r="F2">
-        <v>238.60818662019827</v>
-      </c>
-      <c r="G2">
-        <v>279.7222406229032</v>
-      </c>
-      <c r="H2">
-        <v>290.73600931707085</v>
-      </c>
-      <c r="I2">
-        <v>339.78296051986706</v>
-      </c>
-      <c r="J2">
-        <v>302.60448670770955</v>
-      </c>
-      <c r="K2">
-        <v>306.80357798553678</v>
-      </c>
-      <c r="L2">
-        <v>309.87555862812729</v>
-      </c>
-      <c r="N2">
-        <v>281.90691527743547</v>
-      </c>
-      <c r="O2">
-        <v>262.85707345386032</v>
-      </c>
-      <c r="P2">
-        <v>261.06781093802971</v>
-      </c>
-      <c r="Q2">
-        <v>344.26095141692178</v>
-      </c>
-      <c r="S2">
-        <v>329.18828592850008</v>
-      </c>
-      <c r="V2">
-        <v>325.08020888342139</v>
-      </c>
-      <c r="W2">
-        <v>269.69264775669501</v>
-      </c>
-      <c r="X2">
-        <v>277.12536027435169</v>
-      </c>
-      <c r="AA2">
-        <v>326.39775554853964</v>
-      </c>
-      <c r="AB2">
-        <v>298.26261797864811</v>
-      </c>
-      <c r="AC2">
-        <v>262.55800430339468</v>
-      </c>
-      <c r="AD2">
-        <v>275.62323474478654</v>
-      </c>
-      <c r="AE2">
-        <v>267.98564945157517</v>
-      </c>
-      <c r="AF2">
-        <v>289.05090432918655</v>
-      </c>
-      <c r="AG2">
-        <v>285.47641921701415</v>
-      </c>
-      <c r="AH2">
-        <v>343.02870023226922</v>
-      </c>
-      <c r="AI2">
-        <v>281.92389544385924</v>
-      </c>
-      <c r="AJ2">
-        <v>296.79170614910163</v>
-      </c>
-      <c r="AK2">
-        <v>312.90000361813748</v>
-      </c>
-      <c r="AL2">
-        <v>338.11916376192801</v>
-      </c>
-      <c r="AM2">
-        <v>281.67242902209915</v>
-      </c>
-      <c r="AN2">
-        <v>260.71443228325825</v>
-      </c>
       <c r="AO2">
-        <v>272.42828523709954</v>
+        <v>272.42828517857811</v>
       </c>
       <c r="AQ2">
-        <v>294.19274829903816</v>
+        <v>294.19274825932462</v>
       </c>
       <c r="AR2">
-        <v>334.32459524546658</v>
+        <v>334.32459524249577</v>
       </c>
       <c r="AS2">
-        <v>327.13775024115102</v>
+        <v>327.13775020507819</v>
       </c>
       <c r="AU2">
-        <v>321.83729046749306</v>
+        <v>321.83729043237565</v>
       </c>
       <c r="AV2">
-        <v>273.61609655119605</v>
+        <v>273.61609647970675</v>
       </c>
       <c r="AW2">
-        <v>279.84159216119696</v>
+        <v>279.84159211555277</v>
       </c>
       <c r="AX2">
-        <v>242.4667156623016</v>
+        <v>242.46671561893669</v>
       </c>
       <c r="AY2">
-        <v>270.09641319839579</v>
+        <v>270.09641314404303</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>325.15946442717916</v>
+      </c>
+      <c r="C3">
+        <v>305.71881881242405</v>
+      </c>
+      <c r="E3">
+        <v>255.65214796739303</v>
+      </c>
+      <c r="F3">
+        <v>254.10252956832969</v>
+      </c>
+      <c r="G3">
+        <v>279.90041735586681</v>
+      </c>
+      <c r="H3">
+        <v>284.29571384844081</v>
+      </c>
+      <c r="J3">
+        <v>305.82291798414349</v>
+      </c>
+      <c r="K3">
+        <v>292.79384029328207</v>
+      </c>
+      <c r="L3">
+        <v>320.91435670948988</v>
+      </c>
+      <c r="M3">
+        <v>323.82251802001736</v>
+      </c>
+      <c r="N3">
         <v>308.11008337506928</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>294.90046744148231</v>
+      </c>
+      <c r="Q3">
+        <v>346.62525285562856</v>
+      </c>
+      <c r="R3">
+        <v>292.59556661028108</v>
+      </c>
+      <c r="W3">
+        <v>296.47658347079869</v>
+      </c>
+      <c r="AA3">
+        <v>335.10860691855333</v>
+      </c>
+      <c r="AB3">
+        <v>300.12609858090673</v>
+      </c>
+      <c r="AC3">
+        <v>266.95443435336961</v>
+      </c>
+      <c r="AD3">
+        <v>252.09094817122207</v>
+      </c>
+      <c r="AE3">
+        <v>264.30629339857239</v>
+      </c>
+      <c r="AF3">
+        <v>283.1825162467066</v>
+      </c>
+      <c r="AG3">
+        <v>289.01412745227151</v>
+      </c>
+      <c r="AH3">
+        <v>343.32091405068905</v>
+      </c>
+      <c r="AI3">
+        <v>312.91104984503818</v>
+      </c>
+      <c r="AJ3">
+        <v>298.51161932234811</v>
+      </c>
+      <c r="AK3">
+        <v>319.60080771987748</v>
+      </c>
+      <c r="AL3">
+        <v>332.76958058356684</v>
+      </c>
+      <c r="AM3">
         <v>313.81384839709028</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>256.34900221840485</v>
       </c>
-      <c r="F3">
-        <v>254.10252960337155</v>
-      </c>
-      <c r="G3">
-        <v>279.90041738284498</v>
-      </c>
-      <c r="H3">
-        <v>284.29571390102774</v>
-      </c>
-      <c r="J3">
-        <v>305.82291802906514</v>
-      </c>
-      <c r="K3">
-        <v>292.79384034146881</v>
-      </c>
-      <c r="L3">
-        <v>320.91435673977185</v>
-      </c>
-      <c r="M3">
-        <v>323.82267729209821</v>
-      </c>
-      <c r="N3">
-        <v>308.11008342061666</v>
-      </c>
-      <c r="P3">
-        <v>294.90046748577595</v>
-      </c>
-      <c r="Q3">
-        <v>346.62525290943313</v>
-      </c>
-      <c r="R3">
-        <v>292.59556667119091</v>
-      </c>
-      <c r="W3">
-        <v>296.47658354244851</v>
-      </c>
-      <c r="AA3">
-        <v>335.1086069939318</v>
-      </c>
-      <c r="AB3">
-        <v>300.1260986079767</v>
-      </c>
-      <c r="AC3">
-        <v>266.95443439990709</v>
-      </c>
-      <c r="AD3">
-        <v>252.09094821725472</v>
-      </c>
-      <c r="AE3">
-        <v>264.30629341575309</v>
-      </c>
-      <c r="AF3">
-        <v>283.18251625765686</v>
-      </c>
-      <c r="AG3">
-        <v>289.01412749530124</v>
-      </c>
-      <c r="AH3">
-        <v>343.32091407075427</v>
-      </c>
-      <c r="AI3">
-        <v>312.91104989250852</v>
-      </c>
-      <c r="AJ3">
-        <v>298.51161937567269</v>
-      </c>
-      <c r="AK3">
-        <v>319.60080776026757</v>
-      </c>
-      <c r="AL3">
-        <v>332.76958063013268</v>
-      </c>
-      <c r="AM3">
-        <v>313.8138484716556</v>
-      </c>
-      <c r="AN3">
-        <v>256.34900226990624</v>
-      </c>
       <c r="AO3">
-        <v>247.92441253188815</v>
+        <v>247.92441247626601</v>
       </c>
       <c r="AP3">
-        <v>346.33370372362623</v>
+        <v>346.33370368035855</v>
       </c>
       <c r="AQ3">
-        <v>301.36691330216536</v>
+        <v>301.36691324747699</v>
       </c>
       <c r="AS3">
-        <v>308.08305346025634</v>
+        <v>308.08305341873148</v>
       </c>
       <c r="AT3">
-        <v>266.70971647029626</v>
+        <v>266.70971640704988</v>
       </c>
       <c r="AU3">
-        <v>305.14321864352598</v>
+        <v>305.14321858810092</v>
       </c>
       <c r="AV3">
-        <v>294.76400052603958</v>
+        <v>294.76400043188687</v>
       </c>
       <c r="AW3">
-        <v>276.79762535165173</v>
+        <v>276.79762530347693</v>
       </c>
       <c r="AX3">
-        <v>277.35689204503757</v>
+        <v>277.35689201370946</v>
       </c>
       <c r="AY3">
-        <v>276.86538253645443</v>
+        <v>276.86538250548972</v>
       </c>
     </row>
   </sheetData>
